--- a/css_cascading_hierarchy.xlsx
+++ b/css_cascading_hierarchy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learnings\Full_Stack_Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04497445-4D5E-4FB4-B57A-0C26D57C874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA925A9C-85EA-493C-8126-C42624411906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -286,24 +293,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,19 +323,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,7 +618,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,242 +629,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="12">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="15">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>28</v>
       </c>
     </row>
